--- a/natmiOut/OldD2/LR-pairs_lrc2p/C3-C5ar2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/C3-C5ar2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,55 +534,55 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.61651681188026</v>
+        <v>0.67831</v>
       </c>
       <c r="H2">
-        <v>0.61651681188026</v>
+        <v>1.35662</v>
       </c>
       <c r="I2">
-        <v>0.004336178558872551</v>
+        <v>0.004405345910740629</v>
       </c>
       <c r="J2">
-        <v>0.004336178558872551</v>
+        <v>0.002944056215323526</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.13095728294845</v>
+        <v>0.0189055</v>
       </c>
       <c r="N2">
-        <v>0.13095728294845</v>
+        <v>0.037811</v>
       </c>
       <c r="O2">
-        <v>0.007447904967433232</v>
+        <v>0.001039786983778734</v>
       </c>
       <c r="P2">
-        <v>0.007447904967433232</v>
+        <v>0.0006942737700079276</v>
       </c>
       <c r="Q2">
-        <v>0.08073736657587952</v>
+        <v>0.012823789705</v>
       </c>
       <c r="R2">
-        <v>0.08073736657587952</v>
+        <v>0.05129515881999999</v>
       </c>
       <c r="S2">
-        <v>3.229544582830434E-05</v>
+        <v>4.580621337030981E-06</v>
       </c>
       <c r="T2">
-        <v>3.229544582830434E-05</v>
+        <v>2.043981007727936E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,55 +596,55 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.61651681188026</v>
+        <v>0.67831</v>
       </c>
       <c r="H3">
-        <v>0.61651681188026</v>
+        <v>1.35662</v>
       </c>
       <c r="I3">
-        <v>0.004336178558872551</v>
+        <v>0.004405345910740629</v>
       </c>
       <c r="J3">
-        <v>0.004336178558872551</v>
+        <v>0.002944056215323526</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>9.12019576618637</v>
+        <v>0.1391566666666667</v>
       </c>
       <c r="N3">
-        <v>9.12019576618637</v>
+        <v>0.41747</v>
       </c>
       <c r="O3">
-        <v>0.5186909030304295</v>
+        <v>0.007653502457276249</v>
       </c>
       <c r="P3">
-        <v>0.5186909030304295</v>
+        <v>0.007665453724186336</v>
       </c>
       <c r="Q3">
-        <v>5.622754017493066</v>
+        <v>0.09439135856666667</v>
       </c>
       <c r="R3">
-        <v>5.622754017493066</v>
+        <v>0.5663481513999999</v>
       </c>
       <c r="S3">
-        <v>0.00224913637240279</v>
+        <v>3.371632575300528E-05</v>
       </c>
       <c r="T3">
-        <v>0.00224913637240279</v>
+        <v>2.256752667996565E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.61651681188026</v>
+        <v>0.67831</v>
       </c>
       <c r="H4">
-        <v>0.61651681188026</v>
+        <v>1.35662</v>
       </c>
       <c r="I4">
-        <v>0.004336178558872551</v>
+        <v>0.004405345910740629</v>
       </c>
       <c r="J4">
-        <v>0.004336178558872551</v>
+        <v>0.002944056215323526</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.33195032303156</v>
+        <v>9.410223333333334</v>
       </c>
       <c r="N4">
-        <v>8.33195032303156</v>
+        <v>28.23067</v>
       </c>
       <c r="O4">
-        <v>0.4738611920021372</v>
+        <v>0.5175545601254099</v>
       </c>
       <c r="P4">
-        <v>0.4738611920021372</v>
+        <v>0.5183627434013833</v>
       </c>
       <c r="Q4">
-        <v>5.13678744990012</v>
+        <v>6.383048589233334</v>
       </c>
       <c r="R4">
-        <v>5.13678744990012</v>
+        <v>38.2982915354</v>
       </c>
       <c r="S4">
-        <v>0.002054746740641457</v>
+        <v>0.00228000686503364</v>
       </c>
       <c r="T4">
-        <v>0.002054746740641457</v>
+        <v>0.001526089056502997</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>101.379604324632</v>
+        <v>0.67831</v>
       </c>
       <c r="H5">
-        <v>101.379604324632</v>
+        <v>1.35662</v>
       </c>
       <c r="I5">
-        <v>0.7130382466599003</v>
+        <v>0.004405345910740629</v>
       </c>
       <c r="J5">
-        <v>0.7130382466599003</v>
+        <v>0.002944056215323526</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.13095728294845</v>
+        <v>8.435696666666667</v>
       </c>
       <c r="N5">
-        <v>0.13095728294845</v>
+        <v>25.30709</v>
       </c>
       <c r="O5">
-        <v>0.007447904967433232</v>
+        <v>0.463956393277388</v>
       </c>
       <c r="P5">
-        <v>0.007447904967433232</v>
+        <v>0.4646808807550693</v>
       </c>
       <c r="Q5">
-        <v>13.27639752874274</v>
+        <v>5.722017405966667</v>
       </c>
       <c r="R5">
-        <v>13.27639752874274</v>
+        <v>34.3321044358</v>
       </c>
       <c r="S5">
-        <v>0.005310641099268153</v>
+        <v>0.002043888399886512</v>
       </c>
       <c r="T5">
-        <v>0.005310641099268153</v>
+        <v>0.001368046635128972</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>101.379604324632</v>
+        <v>0.67831</v>
       </c>
       <c r="H6">
-        <v>101.379604324632</v>
+        <v>1.35662</v>
       </c>
       <c r="I6">
-        <v>0.7130382466599003</v>
+        <v>0.004405345910740629</v>
       </c>
       <c r="J6">
-        <v>0.7130382466599003</v>
+        <v>0.002944056215323526</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>9.12019576618637</v>
+        <v>0.1119693333333334</v>
       </c>
       <c r="N6">
-        <v>9.12019576618637</v>
+        <v>0.335908</v>
       </c>
       <c r="O6">
-        <v>0.5186909030304295</v>
+        <v>0.006158221437273937</v>
       </c>
       <c r="P6">
-        <v>0.5186909030304295</v>
+        <v>0.006167837759800666</v>
       </c>
       <c r="Q6">
-        <v>924.6018381391582</v>
+        <v>0.07594991849333334</v>
       </c>
       <c r="R6">
-        <v>924.6018381391582</v>
+        <v>0.4556995109600001</v>
       </c>
       <c r="S6">
-        <v>0.3698464520552578</v>
+        <v>2.712909562613002E-05</v>
       </c>
       <c r="T6">
-        <v>0.3698464520552578</v>
+        <v>1.815846109184828E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,60 +844,60 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>101.379604324632</v>
+        <v>0.67831</v>
       </c>
       <c r="H7">
-        <v>101.379604324632</v>
+        <v>1.35662</v>
       </c>
       <c r="I7">
-        <v>0.7130382466599003</v>
+        <v>0.004405345910740629</v>
       </c>
       <c r="J7">
-        <v>0.7130382466599003</v>
+        <v>0.002944056215323526</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M7">
-        <v>8.33195032303156</v>
+        <v>0.066138</v>
       </c>
       <c r="N7">
-        <v>8.33195032303156</v>
+        <v>0.132276</v>
       </c>
       <c r="O7">
-        <v>0.4738611920021372</v>
+        <v>0.003637535718873235</v>
       </c>
       <c r="P7">
-        <v>0.4738611920021372</v>
+        <v>0.002428810589552475</v>
       </c>
       <c r="Q7">
-        <v>844.6898270014293</v>
+        <v>0.04486206678</v>
       </c>
       <c r="R7">
-        <v>844.6898270014293</v>
+        <v>0.17944826712</v>
       </c>
       <c r="S7">
-        <v>0.3378811535053743</v>
+        <v>1.602460310431118E-05</v>
       </c>
       <c r="T7">
-        <v>0.3378811535053743</v>
+        <v>7.150554912015561E-06</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,60 +906,60 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>13.3969551506456</v>
+        <v>108.0898166666667</v>
       </c>
       <c r="H8">
-        <v>13.3969551506456</v>
+        <v>324.26945</v>
       </c>
       <c r="I8">
-        <v>0.09422547537874634</v>
+        <v>0.7019991329115071</v>
       </c>
       <c r="J8">
-        <v>0.09422547537874634</v>
+        <v>0.7037103166045329</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M8">
-        <v>0.13095728294845</v>
+        <v>0.0189055</v>
       </c>
       <c r="N8">
-        <v>0.13095728294845</v>
+        <v>0.037811</v>
       </c>
       <c r="O8">
-        <v>0.007447904967433232</v>
+        <v>0.001039786983778734</v>
       </c>
       <c r="P8">
-        <v>0.007447904967433232</v>
+        <v>0.0006942737700079276</v>
       </c>
       <c r="Q8">
-        <v>1.75442884631079</v>
+        <v>2.043492028991666</v>
       </c>
       <c r="R8">
-        <v>1.75442884631079</v>
+        <v>12.26095217395</v>
       </c>
       <c r="S8">
-        <v>0.0007017823861321226</v>
+        <v>0.0007299295610253429</v>
       </c>
       <c r="T8">
-        <v>0.0007017823861321226</v>
+        <v>0.0004885676145025014</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,184 +968,184 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>13.3969551506456</v>
+        <v>108.0898166666667</v>
       </c>
       <c r="H9">
-        <v>13.3969551506456</v>
+        <v>324.26945</v>
       </c>
       <c r="I9">
-        <v>0.09422547537874634</v>
+        <v>0.7019991329115071</v>
       </c>
       <c r="J9">
-        <v>0.09422547537874634</v>
+        <v>0.7037103166045329</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>9.12019576618637</v>
+        <v>0.1391566666666667</v>
       </c>
       <c r="N9">
-        <v>9.12019576618637</v>
+        <v>0.41747</v>
       </c>
       <c r="O9">
-        <v>0.5186909030304295</v>
+        <v>0.007653502457276249</v>
       </c>
       <c r="P9">
-        <v>0.5186909030304295</v>
+        <v>0.007665453724186336</v>
       </c>
       <c r="Q9">
-        <v>122.1828536447067</v>
+        <v>15.04141858794445</v>
       </c>
       <c r="R9">
-        <v>122.1828536447067</v>
+        <v>135.3727672915</v>
       </c>
       <c r="S9">
-        <v>0.04887389691267344</v>
+        <v>0.005372752088744015</v>
       </c>
       <c r="T9">
-        <v>0.04887389691267344</v>
+        <v>0.005394258867164562</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>13.3969551506456</v>
+        <v>108.0898166666667</v>
       </c>
       <c r="H10">
-        <v>13.3969551506456</v>
+        <v>324.26945</v>
       </c>
       <c r="I10">
-        <v>0.09422547537874634</v>
+        <v>0.7019991329115071</v>
       </c>
       <c r="J10">
-        <v>0.09422547537874634</v>
+        <v>0.7037103166045329</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.33195032303156</v>
+        <v>9.410223333333334</v>
       </c>
       <c r="N10">
-        <v>8.33195032303156</v>
+        <v>28.23067</v>
       </c>
       <c r="O10">
-        <v>0.4738611920021372</v>
+        <v>0.5175545601254099</v>
       </c>
       <c r="P10">
-        <v>0.4738611920021372</v>
+        <v>0.5183627434013833</v>
       </c>
       <c r="Q10">
-        <v>111.6227647950609</v>
+        <v>1017.149314892389</v>
       </c>
       <c r="R10">
-        <v>111.6227647950609</v>
+        <v>9154.343834031501</v>
       </c>
       <c r="S10">
-        <v>0.04464979607994077</v>
+        <v>0.3633228524424342</v>
       </c>
       <c r="T10">
-        <v>0.04464979607994077</v>
+        <v>0.3647772102749817</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>25.1836949019119</v>
+        <v>108.0898166666667</v>
       </c>
       <c r="H11">
-        <v>25.1836949019119</v>
+        <v>324.26945</v>
       </c>
       <c r="I11">
-        <v>0.1771257421737063</v>
+        <v>0.7019991329115071</v>
       </c>
       <c r="J11">
-        <v>0.1771257421737063</v>
+        <v>0.7037103166045329</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.13095728294845</v>
+        <v>8.435696666666667</v>
       </c>
       <c r="N11">
-        <v>0.13095728294845</v>
+        <v>25.30709</v>
       </c>
       <c r="O11">
-        <v>0.007447904967433232</v>
+        <v>0.463956393277388</v>
       </c>
       <c r="P11">
-        <v>0.007447904967433232</v>
+        <v>0.4646808807550693</v>
       </c>
       <c r="Q11">
-        <v>3.297988258957114</v>
+        <v>911.8129061556111</v>
       </c>
       <c r="R11">
-        <v>3.297988258957114</v>
+        <v>8206.3161554005</v>
       </c>
       <c r="S11">
-        <v>0.001319215694995845</v>
+        <v>0.3256969857894765</v>
       </c>
       <c r="T11">
-        <v>0.001319215694995845</v>
+        <v>0.327000729716223</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>25.1836949019119</v>
+        <v>108.0898166666667</v>
       </c>
       <c r="H12">
-        <v>25.1836949019119</v>
+        <v>324.26945</v>
       </c>
       <c r="I12">
-        <v>0.1771257421737063</v>
+        <v>0.7019991329115071</v>
       </c>
       <c r="J12">
-        <v>0.1771257421737063</v>
+        <v>0.7037103166045329</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>9.12019576618637</v>
+        <v>0.1119693333333334</v>
       </c>
       <c r="N12">
-        <v>9.12019576618637</v>
+        <v>0.335908</v>
       </c>
       <c r="O12">
-        <v>0.5186909030304295</v>
+        <v>0.006158221437273937</v>
       </c>
       <c r="P12">
-        <v>0.5186909030304295</v>
+        <v>0.006167837759800666</v>
       </c>
       <c r="Q12">
-        <v>229.6802276213462</v>
+        <v>12.10274471228889</v>
       </c>
       <c r="R12">
-        <v>229.6802276213462</v>
+        <v>108.9247024106</v>
       </c>
       <c r="S12">
-        <v>0.09187351115801477</v>
+        <v>0.004323066109243359</v>
       </c>
       <c r="T12">
-        <v>0.09187351115801477</v>
+        <v>0.00434037106271472</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,60 +1216,60 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>25.1836949019119</v>
+        <v>108.0898166666667</v>
       </c>
       <c r="H13">
-        <v>25.1836949019119</v>
+        <v>324.26945</v>
       </c>
       <c r="I13">
-        <v>0.1771257421737063</v>
+        <v>0.7019991329115071</v>
       </c>
       <c r="J13">
-        <v>0.1771257421737063</v>
+        <v>0.7037103166045329</v>
       </c>
       <c r="K13">
         <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M13">
-        <v>8.33195032303156</v>
+        <v>0.066138</v>
       </c>
       <c r="N13">
-        <v>8.33195032303156</v>
+        <v>0.132276</v>
       </c>
       <c r="O13">
-        <v>0.4738611920021372</v>
+        <v>0.003637535718873235</v>
       </c>
       <c r="P13">
-        <v>0.4738611920021372</v>
+        <v>0.002428810589552475</v>
       </c>
       <c r="Q13">
-        <v>209.8292948731131</v>
+        <v>7.1488442947</v>
       </c>
       <c r="R13">
-        <v>209.8292948731131</v>
+        <v>42.8930657682</v>
       </c>
       <c r="S13">
-        <v>0.08393301532069571</v>
+        <v>0.002553546920583646</v>
       </c>
       <c r="T13">
-        <v>0.08393301532069571</v>
+        <v>0.001709179068946414</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,60 +1278,60 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.17927305390896</v>
+        <v>17.58332566666667</v>
       </c>
       <c r="H14">
-        <v>1.17927305390896</v>
+        <v>52.749977</v>
       </c>
       <c r="I14">
-        <v>0.008294240210288602</v>
+        <v>0.114196505761187</v>
       </c>
       <c r="J14">
-        <v>0.008294240210288602</v>
+        <v>0.1144748696355818</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M14">
-        <v>0.13095728294845</v>
+        <v>0.0189055</v>
       </c>
       <c r="N14">
-        <v>0.13095728294845</v>
+        <v>0.037811</v>
       </c>
       <c r="O14">
-        <v>0.007447904967433232</v>
+        <v>0.001039786983778734</v>
       </c>
       <c r="P14">
-        <v>0.007447904967433232</v>
+        <v>0.0006942737700079276</v>
       </c>
       <c r="Q14">
-        <v>0.1544343949942384</v>
+        <v>0.3324215633911666</v>
       </c>
       <c r="R14">
-        <v>0.1544343949942384</v>
+        <v>1.994529380347</v>
       </c>
       <c r="S14">
-        <v>6.177471286329293E-05</v>
+        <v>0.0001187400402834955</v>
       </c>
       <c r="T14">
-        <v>6.177471286329293E-05</v>
+        <v>7.947689931306143E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,60 +1340,60 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.17927305390896</v>
+        <v>17.58332566666667</v>
       </c>
       <c r="H15">
-        <v>1.17927305390896</v>
+        <v>52.749977</v>
       </c>
       <c r="I15">
-        <v>0.008294240210288602</v>
+        <v>0.114196505761187</v>
       </c>
       <c r="J15">
-        <v>0.008294240210288602</v>
+        <v>0.1144748696355818</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>9.12019576618637</v>
+        <v>0.1391566666666667</v>
       </c>
       <c r="N15">
-        <v>9.12019576618637</v>
+        <v>0.41747</v>
       </c>
       <c r="O15">
-        <v>0.5186909030304295</v>
+        <v>0.007653502457276249</v>
       </c>
       <c r="P15">
-        <v>0.5186909030304295</v>
+        <v>0.007665453724186336</v>
       </c>
       <c r="Q15">
-        <v>10.75520111343817</v>
+        <v>2.446836988687778</v>
       </c>
       <c r="R15">
-        <v>10.75520111343817</v>
+        <v>22.02153289819</v>
       </c>
       <c r="S15">
-        <v>0.004302146944625895</v>
+        <v>0.000874003237455606</v>
       </c>
       <c r="T15">
-        <v>0.004302146944625895</v>
+        <v>0.0008775018157738162</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,60 +1402,60 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.17927305390896</v>
+        <v>17.58332566666667</v>
       </c>
       <c r="H16">
-        <v>1.17927305390896</v>
+        <v>52.749977</v>
       </c>
       <c r="I16">
-        <v>0.008294240210288602</v>
+        <v>0.114196505761187</v>
       </c>
       <c r="J16">
-        <v>0.008294240210288602</v>
+        <v>0.1144748696355818</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.33195032303156</v>
+        <v>9.410223333333334</v>
       </c>
       <c r="N16">
-        <v>8.33195032303156</v>
+        <v>28.23067</v>
       </c>
       <c r="O16">
-        <v>0.4738611920021372</v>
+        <v>0.5175545601254099</v>
       </c>
       <c r="P16">
-        <v>0.4738611920021372</v>
+        <v>0.5183627434013833</v>
       </c>
       <c r="Q16">
-        <v>9.825644502459173</v>
+        <v>165.4630214660656</v>
       </c>
       <c r="R16">
-        <v>9.825644502459173</v>
+        <v>1489.16719319459</v>
       </c>
       <c r="S16">
-        <v>0.003930318552799414</v>
+        <v>0.05910292230708998</v>
       </c>
       <c r="T16">
-        <v>0.003930318552799414</v>
+        <v>0.05933950747481592</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1464,60 +1464,60 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.423712312194253</v>
+        <v>17.58332566666667</v>
       </c>
       <c r="H17">
-        <v>0.423712312194253</v>
+        <v>52.749977</v>
       </c>
       <c r="I17">
-        <v>0.002980117018485899</v>
+        <v>0.114196505761187</v>
       </c>
       <c r="J17">
-        <v>0.002980117018485899</v>
+        <v>0.1144748696355818</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.13095728294845</v>
+        <v>8.435696666666667</v>
       </c>
       <c r="N17">
-        <v>0.13095728294845</v>
+        <v>25.30709</v>
       </c>
       <c r="O17">
-        <v>0.007447904967433232</v>
+        <v>0.463956393277388</v>
       </c>
       <c r="P17">
-        <v>0.007447904967433232</v>
+        <v>0.4646808807550693</v>
       </c>
       <c r="Q17">
-        <v>0.05548821315676477</v>
+        <v>148.3276017152145</v>
       </c>
       <c r="R17">
-        <v>0.05548821315676477</v>
+        <v>1334.94841543693</v>
       </c>
       <c r="S17">
-        <v>2.219562834551344E-05</v>
+        <v>0.05298219893784078</v>
       </c>
       <c r="T17">
-        <v>2.219562834551344E-05</v>
+        <v>0.05319428324658391</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,117 +1526,1233 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.423712312194253</v>
+        <v>17.58332566666667</v>
       </c>
       <c r="H18">
-        <v>0.423712312194253</v>
+        <v>52.749977</v>
       </c>
       <c r="I18">
-        <v>0.002980117018485899</v>
+        <v>0.114196505761187</v>
       </c>
       <c r="J18">
-        <v>0.002980117018485899</v>
+        <v>0.1144748696355818</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>9.12019576618637</v>
+        <v>0.1119693333333334</v>
       </c>
       <c r="N18">
-        <v>9.12019576618637</v>
+        <v>0.335908</v>
       </c>
       <c r="O18">
-        <v>0.5186909030304295</v>
+        <v>0.006158221437273937</v>
       </c>
       <c r="P18">
-        <v>0.5186909030304295</v>
+        <v>0.006167837759800666</v>
       </c>
       <c r="Q18">
-        <v>3.864339235755064</v>
+        <v>1.968793252679556</v>
       </c>
       <c r="R18">
-        <v>3.864339235755064</v>
+        <v>17.719139274116</v>
       </c>
       <c r="S18">
-        <v>0.001545759587454802</v>
+        <v>0.0007032473698403185</v>
       </c>
       <c r="T18">
-        <v>0.001545759587454802</v>
+        <v>0.0007060624234866004</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>17.58332566666667</v>
+      </c>
+      <c r="H19">
+        <v>52.749977</v>
+      </c>
+      <c r="I19">
+        <v>0.114196505761187</v>
+      </c>
+      <c r="J19">
+        <v>0.1144748696355818</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.5</v>
+      </c>
+      <c r="M19">
+        <v>0.066138</v>
+      </c>
+      <c r="N19">
+        <v>0.132276</v>
+      </c>
+      <c r="O19">
+        <v>0.003637535718873235</v>
+      </c>
+      <c r="P19">
+        <v>0.002428810589552475</v>
+      </c>
+      <c r="Q19">
+        <v>1.162925992942</v>
+      </c>
+      <c r="R19">
+        <v>6.977555957652</v>
+      </c>
+      <c r="S19">
+        <v>0.0004153938686768309</v>
+      </c>
+      <c r="T19">
+        <v>0.0002780377756085403</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>0.423712312194253</v>
-      </c>
-      <c r="H19">
-        <v>0.423712312194253</v>
-      </c>
-      <c r="I19">
-        <v>0.002980117018485899</v>
-      </c>
-      <c r="J19">
-        <v>0.002980117018485899</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>8.33195032303156</v>
-      </c>
-      <c r="N19">
-        <v>8.33195032303156</v>
-      </c>
-      <c r="O19">
-        <v>0.4738611920021372</v>
-      </c>
-      <c r="P19">
-        <v>0.4738611920021372</v>
-      </c>
-      <c r="Q19">
-        <v>3.530349936459355</v>
-      </c>
-      <c r="R19">
-        <v>3.530349936459355</v>
-      </c>
-      <c r="S19">
-        <v>0.001412161802685583</v>
-      </c>
-      <c r="T19">
-        <v>0.001412161802685583</v>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>25.99611466666667</v>
+      </c>
+      <c r="H20">
+        <v>77.988344</v>
+      </c>
+      <c r="I20">
+        <v>0.1688341281153816</v>
+      </c>
+      <c r="J20">
+        <v>0.1692456759269281</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.5</v>
+      </c>
+      <c r="M20">
+        <v>0.0189055</v>
+      </c>
+      <c r="N20">
+        <v>0.037811</v>
+      </c>
+      <c r="O20">
+        <v>0.001039786983778734</v>
+      </c>
+      <c r="P20">
+        <v>0.0006942737700079276</v>
+      </c>
+      <c r="Q20">
+        <v>0.4914695458306667</v>
+      </c>
+      <c r="R20">
+        <v>2.948817274984</v>
+      </c>
+      <c r="S20">
+        <v>0.0001755515288320051</v>
+      </c>
+      <c r="T20">
+        <v>0.0001175028334833283</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>25.99611466666667</v>
+      </c>
+      <c r="H21">
+        <v>77.988344</v>
+      </c>
+      <c r="I21">
+        <v>0.1688341281153816</v>
+      </c>
+      <c r="J21">
+        <v>0.1692456759269281</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.1391566666666667</v>
+      </c>
+      <c r="N21">
+        <v>0.41747</v>
+      </c>
+      <c r="O21">
+        <v>0.007653502457276249</v>
+      </c>
+      <c r="P21">
+        <v>0.007665453724186336</v>
+      </c>
+      <c r="Q21">
+        <v>3.617532663297778</v>
+      </c>
+      <c r="R21">
+        <v>32.55779396968</v>
+      </c>
+      <c r="S21">
+        <v>0.001292172414403166</v>
+      </c>
+      <c r="T21">
+        <v>0.001297344896836505</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>25.99611466666667</v>
+      </c>
+      <c r="H22">
+        <v>77.988344</v>
+      </c>
+      <c r="I22">
+        <v>0.1688341281153816</v>
+      </c>
+      <c r="J22">
+        <v>0.1692456759269281</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>9.410223333333334</v>
+      </c>
+      <c r="N22">
+        <v>28.23067</v>
+      </c>
+      <c r="O22">
+        <v>0.5175545601254099</v>
+      </c>
+      <c r="P22">
+        <v>0.5183627434013833</v>
+      </c>
+      <c r="Q22">
+        <v>244.6292448122756</v>
+      </c>
+      <c r="R22">
+        <v>2201.66320331048</v>
+      </c>
+      <c r="S22">
+        <v>0.08738087291091344</v>
+      </c>
+      <c r="T22">
+        <v>0.08773065288230392</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>25.99611466666667</v>
+      </c>
+      <c r="H23">
+        <v>77.988344</v>
+      </c>
+      <c r="I23">
+        <v>0.1688341281153816</v>
+      </c>
+      <c r="J23">
+        <v>0.1692456759269281</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>8.435696666666667</v>
+      </c>
+      <c r="N23">
+        <v>25.30709</v>
+      </c>
+      <c r="O23">
+        <v>0.463956393277388</v>
+      </c>
+      <c r="P23">
+        <v>0.4646808807550693</v>
+      </c>
+      <c r="Q23">
+        <v>219.2953378398844</v>
+      </c>
+      <c r="R23">
+        <v>1973.65804055896</v>
+      </c>
+      <c r="S23">
+        <v>0.0783316731425449</v>
+      </c>
+      <c r="T23">
+        <v>0.07864522975371198</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>25.99611466666667</v>
+      </c>
+      <c r="H24">
+        <v>77.988344</v>
+      </c>
+      <c r="I24">
+        <v>0.1688341281153816</v>
+      </c>
+      <c r="J24">
+        <v>0.1692456759269281</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.1119693333333334</v>
+      </c>
+      <c r="N24">
+        <v>0.335908</v>
+      </c>
+      <c r="O24">
+        <v>0.006158221437273937</v>
+      </c>
+      <c r="P24">
+        <v>0.006167837759800666</v>
+      </c>
+      <c r="Q24">
+        <v>2.910767628483556</v>
+      </c>
+      <c r="R24">
+        <v>26.196908656352</v>
+      </c>
+      <c r="S24">
+        <v>0.001039717947103597</v>
+      </c>
+      <c r="T24">
+        <v>0.001043879870665094</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>25.99611466666667</v>
+      </c>
+      <c r="H25">
+        <v>77.988344</v>
+      </c>
+      <c r="I25">
+        <v>0.1688341281153816</v>
+      </c>
+      <c r="J25">
+        <v>0.1692456759269281</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.5</v>
+      </c>
+      <c r="M25">
+        <v>0.066138</v>
+      </c>
+      <c r="N25">
+        <v>0.132276</v>
+      </c>
+      <c r="O25">
+        <v>0.003637535718873235</v>
+      </c>
+      <c r="P25">
+        <v>0.002428810589552475</v>
+      </c>
+      <c r="Q25">
+        <v>1.719331031824</v>
+      </c>
+      <c r="R25">
+        <v>10.315986190944</v>
+      </c>
+      <c r="S25">
+        <v>0.0006141401715845206</v>
+      </c>
+      <c r="T25">
+        <v>0.0004110656899272894</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.181792</v>
+      </c>
+      <c r="H26">
+        <v>3.545376</v>
+      </c>
+      <c r="I26">
+        <v>0.007675255494605696</v>
+      </c>
+      <c r="J26">
+        <v>0.00769396459469775</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.5</v>
+      </c>
+      <c r="M26">
+        <v>0.0189055</v>
+      </c>
+      <c r="N26">
+        <v>0.037811</v>
+      </c>
+      <c r="O26">
+        <v>0.001039786983778734</v>
+      </c>
+      <c r="P26">
+        <v>0.0006942737700079276</v>
+      </c>
+      <c r="Q26">
+        <v>0.022342368656</v>
+      </c>
+      <c r="R26">
+        <v>0.134054211936</v>
+      </c>
+      <c r="S26">
+        <v>7.980630760467217E-06</v>
+      </c>
+      <c r="T26">
+        <v>5.341717805468323E-06</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1.181792</v>
+      </c>
+      <c r="H27">
+        <v>3.545376</v>
+      </c>
+      <c r="I27">
+        <v>0.007675255494605696</v>
+      </c>
+      <c r="J27">
+        <v>0.00769396459469775</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0.1391566666666667</v>
+      </c>
+      <c r="N27">
+        <v>0.41747</v>
+      </c>
+      <c r="O27">
+        <v>0.007653502457276249</v>
+      </c>
+      <c r="P27">
+        <v>0.007665453724186336</v>
+      </c>
+      <c r="Q27">
+        <v>0.1644542354133333</v>
+      </c>
+      <c r="R27">
+        <v>1.48008811872</v>
+      </c>
+      <c r="S27">
+        <v>5.874258678818772E-05</v>
+      </c>
+      <c r="T27">
+        <v>5.897772955618368E-05</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1.181792</v>
+      </c>
+      <c r="H28">
+        <v>3.545376</v>
+      </c>
+      <c r="I28">
+        <v>0.007675255494605696</v>
+      </c>
+      <c r="J28">
+        <v>0.00769396459469775</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>9.410223333333334</v>
+      </c>
+      <c r="N28">
+        <v>28.23067</v>
+      </c>
+      <c r="O28">
+        <v>0.5175545601254099</v>
+      </c>
+      <c r="P28">
+        <v>0.5183627434013833</v>
+      </c>
+      <c r="Q28">
+        <v>11.12092665354667</v>
+      </c>
+      <c r="R28">
+        <v>100.08833988192</v>
+      </c>
+      <c r="S28">
+        <v>0.003972363481360787</v>
+      </c>
+      <c r="T28">
+        <v>0.003988264594940638</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1.181792</v>
+      </c>
+      <c r="H29">
+        <v>3.545376</v>
+      </c>
+      <c r="I29">
+        <v>0.007675255494605696</v>
+      </c>
+      <c r="J29">
+        <v>0.00769396459469775</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>8.435696666666667</v>
+      </c>
+      <c r="N29">
+        <v>25.30709</v>
+      </c>
+      <c r="O29">
+        <v>0.463956393277388</v>
+      </c>
+      <c r="P29">
+        <v>0.4646808807550693</v>
+      </c>
+      <c r="Q29">
+        <v>9.969238835093334</v>
+      </c>
+      <c r="R29">
+        <v>89.72314951584001</v>
+      </c>
+      <c r="S29">
+        <v>0.003560983856759713</v>
+      </c>
+      <c r="T29">
+        <v>0.00357523824436247</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1.181792</v>
+      </c>
+      <c r="H30">
+        <v>3.545376</v>
+      </c>
+      <c r="I30">
+        <v>0.007675255494605696</v>
+      </c>
+      <c r="J30">
+        <v>0.00769396459469775</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M30">
+        <v>0.1119693333333334</v>
+      </c>
+      <c r="N30">
+        <v>0.335908</v>
+      </c>
+      <c r="O30">
+        <v>0.006158221437273937</v>
+      </c>
+      <c r="P30">
+        <v>0.006167837759800666</v>
+      </c>
+      <c r="Q30">
+        <v>0.1323244623786667</v>
+      </c>
+      <c r="R30">
+        <v>1.190920161408</v>
+      </c>
+      <c r="S30">
+        <v>4.726592292343537E-05</v>
+      </c>
+      <c r="T30">
+        <v>4.745512534974621E-05</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1.181792</v>
+      </c>
+      <c r="H31">
+        <v>3.545376</v>
+      </c>
+      <c r="I31">
+        <v>0.007675255494605696</v>
+      </c>
+      <c r="J31">
+        <v>0.00769396459469775</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>0.5</v>
+      </c>
+      <c r="M31">
+        <v>0.066138</v>
+      </c>
+      <c r="N31">
+        <v>0.132276</v>
+      </c>
+      <c r="O31">
+        <v>0.003637535718873235</v>
+      </c>
+      <c r="P31">
+        <v>0.002428810589552475</v>
+      </c>
+      <c r="Q31">
+        <v>0.078161359296</v>
+      </c>
+      <c r="R31">
+        <v>0.468968155776</v>
+      </c>
+      <c r="S31">
+        <v>2.791901601310628E-05</v>
+      </c>
+      <c r="T31">
+        <v>1.868718268324371E-05</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0.444929</v>
+      </c>
+      <c r="H32">
+        <v>0.889858</v>
+      </c>
+      <c r="I32">
+        <v>0.002889631806577992</v>
+      </c>
+      <c r="J32">
+        <v>0.001931117022935945</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>0.5</v>
+      </c>
+      <c r="M32">
+        <v>0.0189055</v>
+      </c>
+      <c r="N32">
+        <v>0.037811</v>
+      </c>
+      <c r="O32">
+        <v>0.001039786983778734</v>
+      </c>
+      <c r="P32">
+        <v>0.0006942737700079276</v>
+      </c>
+      <c r="Q32">
+        <v>0.0084116052095</v>
+      </c>
+      <c r="R32">
+        <v>0.033646420838</v>
+      </c>
+      <c r="S32">
+        <v>3.004601540392826E-06</v>
+      </c>
+      <c r="T32">
+        <v>1.340723895840224E-06</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0.444929</v>
+      </c>
+      <c r="H33">
+        <v>0.889858</v>
+      </c>
+      <c r="I33">
+        <v>0.002889631806577992</v>
+      </c>
+      <c r="J33">
+        <v>0.001931117022935945</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>0.1391566666666667</v>
+      </c>
+      <c r="N33">
+        <v>0.41747</v>
+      </c>
+      <c r="O33">
+        <v>0.007653502457276249</v>
+      </c>
+      <c r="P33">
+        <v>0.007665453724186336</v>
+      </c>
+      <c r="Q33">
+        <v>0.06191483654333334</v>
+      </c>
+      <c r="R33">
+        <v>0.37148901926</v>
+      </c>
+      <c r="S33">
+        <v>2.211580413226827E-05</v>
+      </c>
+      <c r="T33">
+        <v>1.480288817530397E-05</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0.444929</v>
+      </c>
+      <c r="H34">
+        <v>0.889858</v>
+      </c>
+      <c r="I34">
+        <v>0.002889631806577992</v>
+      </c>
+      <c r="J34">
+        <v>0.001931117022935945</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>9.410223333333334</v>
+      </c>
+      <c r="N34">
+        <v>28.23067</v>
+      </c>
+      <c r="O34">
+        <v>0.5175545601254099</v>
+      </c>
+      <c r="P34">
+        <v>0.5183627434013833</v>
+      </c>
+      <c r="Q34">
+        <v>4.186881257476667</v>
+      </c>
+      <c r="R34">
+        <v>25.12128754486</v>
+      </c>
+      <c r="S34">
+        <v>0.001495542118577866</v>
+      </c>
+      <c r="T34">
+        <v>0.001001019117838189</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0.444929</v>
+      </c>
+      <c r="H35">
+        <v>0.889858</v>
+      </c>
+      <c r="I35">
+        <v>0.002889631806577992</v>
+      </c>
+      <c r="J35">
+        <v>0.001931117022935945</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>8.435696666666667</v>
+      </c>
+      <c r="N35">
+        <v>25.30709</v>
+      </c>
+      <c r="O35">
+        <v>0.463956393277388</v>
+      </c>
+      <c r="P35">
+        <v>0.4646808807550693</v>
+      </c>
+      <c r="Q35">
+        <v>3.753286082203334</v>
+      </c>
+      <c r="R35">
+        <v>22.51971649322</v>
+      </c>
+      <c r="S35">
+        <v>0.001340663150879548</v>
+      </c>
+      <c r="T35">
+        <v>0.0008973531590589825</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0.444929</v>
+      </c>
+      <c r="H36">
+        <v>0.889858</v>
+      </c>
+      <c r="I36">
+        <v>0.002889631806577992</v>
+      </c>
+      <c r="J36">
+        <v>0.001931117022935945</v>
+      </c>
+      <c r="K36">
+        <v>2</v>
+      </c>
+      <c r="L36">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M36">
+        <v>0.1119693333333334</v>
+      </c>
+      <c r="N36">
+        <v>0.335908</v>
+      </c>
+      <c r="O36">
+        <v>0.006158221437273937</v>
+      </c>
+      <c r="P36">
+        <v>0.006167837759800666</v>
+      </c>
+      <c r="Q36">
+        <v>0.04981840351066668</v>
+      </c>
+      <c r="R36">
+        <v>0.2989104210640001</v>
+      </c>
+      <c r="S36">
+        <v>1.77949925370972E-05</v>
+      </c>
+      <c r="T36">
+        <v>1.191081649265817E-05</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0.444929</v>
+      </c>
+      <c r="H37">
+        <v>0.889858</v>
+      </c>
+      <c r="I37">
+        <v>0.002889631806577992</v>
+      </c>
+      <c r="J37">
+        <v>0.001931117022935945</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>0.5</v>
+      </c>
+      <c r="M37">
+        <v>0.066138</v>
+      </c>
+      <c r="N37">
+        <v>0.132276</v>
+      </c>
+      <c r="O37">
+        <v>0.003637535718873235</v>
+      </c>
+      <c r="P37">
+        <v>0.002428810589552475</v>
+      </c>
+      <c r="Q37">
+        <v>0.029426714202</v>
+      </c>
+      <c r="R37">
+        <v>0.117706856808</v>
+      </c>
+      <c r="S37">
+        <v>1.051113891081964E-05</v>
+      </c>
+      <c r="T37">
+        <v>4.690317474971874E-06</v>
       </c>
     </row>
   </sheetData>
